--- a/master_time_sheet.xlsx
+++ b/master_time_sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sauerswa\wichtige Ordner\sauerswa\Codes\Python\ESHL_CBo_Post_Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sauerswa\wichtige Ordner\sauerswa\Codes\Python\Recirculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93948FDF-DB20-4C5C-A1A2-4C910E6A639E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4B28B-CAF1-4D98-8AF8-55E19659D3D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25710" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -929,868 +929,868 @@
     <t>1a,1l,2l,3l,4a_testo,4l,außen</t>
   </si>
   <si>
+    <t>1a,1l,1l_sub,2l,3f,3l,4a,4a_sub,4a_testo,4l,5flur,5treppe,außen,tr,weather</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>eshl_calibration</t>
+  </si>
+  <si>
+    <t>cbo_calibration</t>
+  </si>
+  <si>
+    <t>außen,3l_kü,3l_wz,4l,2l,1l,bd,bd_original,</t>
+  </si>
+  <si>
+    <t>tau_nom</t>
+  </si>
+  <si>
+    <t>tau_nom_uncertainty</t>
+  </si>
+  <si>
+    <t>n_nom</t>
+  </si>
+  <si>
+    <t>n_nom_uncertainty</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>volume_uncertainty</t>
+  </si>
+  <si>
+    <t>volume_flow</t>
+  </si>
+  <si>
+    <t>volume_flow_uncertainty</t>
+  </si>
+  <si>
+    <t>temp_diff</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>1a_50</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>1b_50</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>2a_50</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2c_50</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>2e</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>3a_50</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3c_50</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>3e</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>3g</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>3L_Kü</t>
+  </si>
+  <si>
+    <t>3L_WZ</t>
+  </si>
+  <si>
+    <t>4L</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>außen</t>
+  </si>
+  <si>
+    <t>old_name</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>Date / time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>sec Runtime</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>hPa (1)</t>
+  </si>
+  <si>
+    <t>hPa</t>
+  </si>
+  <si>
+    <t>PpmCO2 2.1 (11)</t>
+  </si>
+  <si>
+    <t>CO2_ppm</t>
+  </si>
+  <si>
+    <t>%rH 3.1 (11)</t>
+  </si>
+  <si>
+    <t>RH_%rH</t>
+  </si>
+  <si>
+    <t>°C 3.2 (11)</t>
+  </si>
+  <si>
+    <t>RH_°C</t>
+  </si>
+  <si>
+    <t>m/s 4.1 (11)</t>
+  </si>
+  <si>
+    <t>hw_m/sec</t>
+  </si>
+  <si>
+    <t>°C 4.2 (11)</t>
+  </si>
+  <si>
+    <t>hw_°C</t>
+  </si>
+  <si>
+    <t>°C 1.1 (11)</t>
+  </si>
+  <si>
+    <t>gb_°C</t>
+  </si>
+  <si>
+    <t>m/s (1)</t>
+  </si>
+  <si>
+    <t>hb_m/sec</t>
+  </si>
+  <si>
+    <t>°C (1)</t>
+  </si>
+  <si>
+    <t>hb_°C</t>
+  </si>
+  <si>
+    <t>PpmCO2 1.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 2.1 (9)</t>
+  </si>
+  <si>
+    <t>%rH 4.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 4.2 (9)</t>
+  </si>
+  <si>
+    <t>m/s 3.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 3.2 (9)</t>
+  </si>
+  <si>
+    <t>Datum / Uhrzeit</t>
+  </si>
+  <si>
+    <t>SecRuntime</t>
+  </si>
+  <si>
+    <t>°C temp._2467500</t>
+  </si>
+  <si>
+    <t>%rH rel humidity_2467500</t>
+  </si>
+  <si>
+    <t>°C Temp._2445076</t>
+  </si>
+  <si>
+    <t>CO2_°C</t>
+  </si>
+  <si>
+    <t>%rF Rel.Feu_2445076</t>
+  </si>
+  <si>
+    <t>CO2_%rH</t>
+  </si>
+  <si>
+    <t>ppm CO2_2445076</t>
+  </si>
+  <si>
+    <t>°C Temp._2435567</t>
+  </si>
+  <si>
+    <t>m/s Str.Ge_2435567</t>
+  </si>
+  <si>
+    <t>testo400-650-950</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ppm CO2</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1L_Sub</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>5Flur</t>
+  </si>
+  <si>
+    <t>5Treppe</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4a_Sub</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>T09</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>PpmCO2 3.1 (9)</t>
+  </si>
+  <si>
+    <t>%rH (1)</t>
+  </si>
+  <si>
+    <t>m/s 1.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 1.2 (9)</t>
+  </si>
+  <si>
+    <t>m/s 4.1 (9)</t>
+  </si>
+  <si>
+    <t>PpmCO2 4.1 (28)</t>
+  </si>
+  <si>
+    <t>m/s 2.1 (28)</t>
+  </si>
+  <si>
+    <t>°C 2.2 (28)</t>
+  </si>
+  <si>
+    <t>°C 3.1 (28)</t>
+  </si>
+  <si>
+    <t>m/s 1.1 (28)</t>
+  </si>
+  <si>
+    <t>°C 1.2 (28)</t>
+  </si>
+  <si>
+    <t>m/s Str.Ge_3408940</t>
+  </si>
+  <si>
+    <t>°C Temp._3408940</t>
+  </si>
+  <si>
+    <t>m/s.1</t>
+  </si>
+  <si>
+    <t>°C.1</t>
+  </si>
+  <si>
+    <t>sec Laufzeit</t>
+  </si>
+  <si>
+    <t>PpmCO2 2.1 (28)</t>
+  </si>
+  <si>
+    <t>%rF 3.1 (28)</t>
+  </si>
+  <si>
+    <t>°C 3.2 (28)</t>
+  </si>
+  <si>
+    <t>°C 4.1 (28)</t>
+  </si>
+  <si>
+    <t>°C 1.1 (9)</t>
+  </si>
+  <si>
+    <t>%rF 2.1 (9)</t>
+  </si>
+  <si>
+    <t>°C 2.2 (9)</t>
+  </si>
+  <si>
+    <t>°C -076</t>
+  </si>
+  <si>
+    <t>%rF -076</t>
+  </si>
+  <si>
+    <t>CO2_%</t>
+  </si>
+  <si>
+    <t>ppm -076</t>
+  </si>
+  <si>
+    <t>°C -567</t>
+  </si>
+  <si>
+    <t>m/s -567</t>
+  </si>
+  <si>
+    <t>m/s -940</t>
+  </si>
+  <si>
+    <t>°C -940</t>
+  </si>
+  <si>
+    <t>°C Int</t>
+  </si>
+  <si>
+    <t>hPa Int</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>Tw01</t>
+  </si>
+  <si>
+    <t>Tw02</t>
+  </si>
+  <si>
+    <t>Tw03</t>
+  </si>
+  <si>
+    <t>Tw04</t>
+  </si>
+  <si>
+    <t>Tw05</t>
+  </si>
+  <si>
+    <t>Tw06</t>
+  </si>
+  <si>
+    <t>Tw07</t>
+  </si>
+  <si>
+    <t>Tw08</t>
+  </si>
+  <si>
+    <t>Tw09</t>
+  </si>
+  <si>
+    <t>Tw10</t>
+  </si>
+  <si>
+    <t>Tw11</t>
+  </si>
+  <si>
+    <t>Tw12</t>
+  </si>
+  <si>
+    <t>Tw13</t>
+  </si>
+  <si>
+    <t>Tw14</t>
+  </si>
+  <si>
+    <t>Tw15</t>
+  </si>
+  <si>
+    <t>Tw16</t>
+  </si>
+  <si>
+    <t>Tw17</t>
+  </si>
+  <si>
+    <t>Tw18</t>
+  </si>
+  <si>
+    <t>Tw19</t>
+  </si>
+  <si>
+    <t>Tw20</t>
+  </si>
+  <si>
+    <t>Tw21</t>
+  </si>
+  <si>
+    <t>Tw22</t>
+  </si>
+  <si>
+    <t>Tw23</t>
+  </si>
+  <si>
+    <t>Tw24</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>tablename</t>
+  </si>
+  <si>
+    <t>LR_floor</t>
+  </si>
+  <si>
+    <t>t01</t>
+  </si>
+  <si>
+    <t>LR_ceiling</t>
+  </si>
+  <si>
+    <t>t02</t>
+  </si>
+  <si>
+    <t>LR_north</t>
+  </si>
+  <si>
+    <t>t03</t>
+  </si>
+  <si>
+    <t>LR_east</t>
+  </si>
+  <si>
+    <t>t04</t>
+  </si>
+  <si>
+    <t>LR_south</t>
+  </si>
+  <si>
+    <t>t05</t>
+  </si>
+  <si>
+    <t>LR_west</t>
+  </si>
+  <si>
+    <t>t06</t>
+  </si>
+  <si>
+    <t>BD1_floor</t>
+  </si>
+  <si>
+    <t>t07</t>
+  </si>
+  <si>
+    <t>BD1_ceiling</t>
+  </si>
+  <si>
+    <t>t08</t>
+  </si>
+  <si>
+    <t>BD1_north</t>
+  </si>
+  <si>
+    <t>t09</t>
+  </si>
+  <si>
+    <t>BD1_east</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>BD1_south</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>BD1_west</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>BD2_floor</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>BD2_ceiling</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>BD2_north</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>BD2_east</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>BD2_south</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>BD2_west</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>Bath_floor</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>Bath_ceiling</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>Bath_north</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>Bath_east</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>Bath_south</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>Bath_west</t>
+  </si>
+  <si>
+    <t>t24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>LR_roof_north</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>LR_roof_east</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>LR_roof_south</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>LR_roof_west</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>BD1_roof_east</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>BD2_roof_east</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>PpmCO2 (1)</t>
+  </si>
+  <si>
+    <t>%rH 1.1 (11)</t>
+  </si>
+  <si>
+    <t>°C 1.2 (11)</t>
+  </si>
+  <si>
+    <t>m/s 2.1 (11)</t>
+  </si>
+  <si>
+    <t>°C 2.2 (11)</t>
+  </si>
+  <si>
+    <t>°C 3.1 (11)</t>
+  </si>
+  <si>
+    <t>%rH 3.1 (9)</t>
+  </si>
+  <si>
+    <t>°C temp._2445076</t>
+  </si>
+  <si>
+    <t>%rH rel humidity_2445076</t>
+  </si>
+  <si>
+    <t>°C temp._2435567</t>
+  </si>
+  <si>
+    <t>m/s vel. flow_2435567</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>eshl_summer_wall</t>
+  </si>
+  <si>
+    <t>eshl_winter_wall</t>
+  </si>
+  <si>
+    <t>cbo_summer_wall</t>
+  </si>
+  <si>
+    <t>cbo_winter_wall</t>
+  </si>
+  <si>
     <t>1l,1a_testo,1t,2a_testo,2l,3l,4a_testo,4l,außen</t>
-  </si>
-  <si>
-    <t>1a,1l,1l_sub,2l,3f,3l,4a,4a_sub,4a_testo,4l,5flur,5treppe,außen,tr,weather</t>
-  </si>
-  <si>
-    <t>calibration</t>
-  </si>
-  <si>
-    <t>eshl_calibration</t>
-  </si>
-  <si>
-    <t>cbo_calibration</t>
-  </si>
-  <si>
-    <t>außen,3l_kü,3l_wz,4l,2l,1l,bd,bd_original,</t>
-  </si>
-  <si>
-    <t>tau_nom</t>
-  </si>
-  <si>
-    <t>tau_nom_uncertainty</t>
-  </si>
-  <si>
-    <t>n_nom</t>
-  </si>
-  <si>
-    <t>n_nom_uncertainty</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>volume_uncertainty</t>
-  </si>
-  <si>
-    <t>volume_flow</t>
-  </si>
-  <si>
-    <t>volume_flow_uncertainty</t>
-  </si>
-  <si>
-    <t>temp_diff</t>
-  </si>
-  <si>
-    <t>Sensor</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>1a_50</t>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>1b_50</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>1e</t>
-  </si>
-  <si>
-    <t>1L</t>
-  </si>
-  <si>
-    <t>1T</t>
-  </si>
-  <si>
-    <t>2a_50</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>2c_50</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>2e</t>
-  </si>
-  <si>
-    <t>2L</t>
-  </si>
-  <si>
-    <t>2T</t>
-  </si>
-  <si>
-    <t>3a_50</t>
-  </si>
-  <si>
-    <t>3b</t>
-  </si>
-  <si>
-    <t>3c</t>
-  </si>
-  <si>
-    <t>3c_50</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>3e</t>
-  </si>
-  <si>
-    <t>3f</t>
-  </si>
-  <si>
-    <t>3g</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>3L_Kü</t>
-  </si>
-  <si>
-    <t>3L_WZ</t>
-  </si>
-  <si>
-    <t>4L</t>
-  </si>
-  <si>
-    <t>4T</t>
-  </si>
-  <si>
-    <t>außen</t>
-  </si>
-  <si>
-    <t>old_name</t>
-  </si>
-  <si>
-    <t>new_name</t>
-  </si>
-  <si>
-    <t>Date / time</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>sec Runtime</t>
-  </si>
-  <si>
-    <t>runtime</t>
-  </si>
-  <si>
-    <t>hPa (1)</t>
-  </si>
-  <si>
-    <t>hPa</t>
-  </si>
-  <si>
-    <t>PpmCO2 2.1 (11)</t>
-  </si>
-  <si>
-    <t>CO2_ppm</t>
-  </si>
-  <si>
-    <t>%rH 3.1 (11)</t>
-  </si>
-  <si>
-    <t>RH_%rH</t>
-  </si>
-  <si>
-    <t>°C 3.2 (11)</t>
-  </si>
-  <si>
-    <t>RH_°C</t>
-  </si>
-  <si>
-    <t>m/s 4.1 (11)</t>
-  </si>
-  <si>
-    <t>hw_m/sec</t>
-  </si>
-  <si>
-    <t>°C 4.2 (11)</t>
-  </si>
-  <si>
-    <t>hw_°C</t>
-  </si>
-  <si>
-    <t>°C 1.1 (11)</t>
-  </si>
-  <si>
-    <t>gb_°C</t>
-  </si>
-  <si>
-    <t>m/s (1)</t>
-  </si>
-  <si>
-    <t>hb_m/sec</t>
-  </si>
-  <si>
-    <t>°C (1)</t>
-  </si>
-  <si>
-    <t>hb_°C</t>
-  </si>
-  <si>
-    <t>PpmCO2 1.1 (9)</t>
-  </si>
-  <si>
-    <t>°C 2.1 (9)</t>
-  </si>
-  <si>
-    <t>%rH 4.1 (9)</t>
-  </si>
-  <si>
-    <t>°C 4.2 (9)</t>
-  </si>
-  <si>
-    <t>m/s 3.1 (9)</t>
-  </si>
-  <si>
-    <t>°C 3.2 (9)</t>
-  </si>
-  <si>
-    <t>Datum / Uhrzeit</t>
-  </si>
-  <si>
-    <t>SecRuntime</t>
-  </si>
-  <si>
-    <t>°C temp._2467500</t>
-  </si>
-  <si>
-    <t>%rH rel humidity_2467500</t>
-  </si>
-  <si>
-    <t>°C Temp._2445076</t>
-  </si>
-  <si>
-    <t>CO2_°C</t>
-  </si>
-  <si>
-    <t>%rF Rel.Feu_2445076</t>
-  </si>
-  <si>
-    <t>CO2_%rH</t>
-  </si>
-  <si>
-    <t>ppm CO2_2445076</t>
-  </si>
-  <si>
-    <t>°C Temp._2435567</t>
-  </si>
-  <si>
-    <t>m/s Str.Ge_2435567</t>
-  </si>
-  <si>
-    <t>testo400-650-950</t>
-  </si>
-  <si>
-    <t>Sno</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>ppm CO2</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>1L_Sub</t>
-  </si>
-  <si>
-    <t>3L</t>
-  </si>
-  <si>
-    <t>3T</t>
-  </si>
-  <si>
-    <t>4b</t>
-  </si>
-  <si>
-    <t>4c</t>
-  </si>
-  <si>
-    <t>5Flur</t>
-  </si>
-  <si>
-    <t>5Treppe</t>
-  </si>
-  <si>
-    <t>Tr</t>
-  </si>
-  <si>
-    <t>4a</t>
-  </si>
-  <si>
-    <t>4a_Sub</t>
-  </si>
-  <si>
-    <t>T01</t>
-  </si>
-  <si>
-    <t>T02</t>
-  </si>
-  <si>
-    <t>T03</t>
-  </si>
-  <si>
-    <t>T04</t>
-  </si>
-  <si>
-    <t>T05</t>
-  </si>
-  <si>
-    <t>T06</t>
-  </si>
-  <si>
-    <t>T07</t>
-  </si>
-  <si>
-    <t>T08</t>
-  </si>
-  <si>
-    <t>T09</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>T18</t>
-  </si>
-  <si>
-    <t>T19</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>T22</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>T24</t>
-  </si>
-  <si>
-    <t>PpmCO2 3.1 (9)</t>
-  </si>
-  <si>
-    <t>%rH (1)</t>
-  </si>
-  <si>
-    <t>m/s 1.1 (9)</t>
-  </si>
-  <si>
-    <t>°C 1.2 (9)</t>
-  </si>
-  <si>
-    <t>m/s 4.1 (9)</t>
-  </si>
-  <si>
-    <t>PpmCO2 4.1 (28)</t>
-  </si>
-  <si>
-    <t>m/s 2.1 (28)</t>
-  </si>
-  <si>
-    <t>°C 2.2 (28)</t>
-  </si>
-  <si>
-    <t>°C 3.1 (28)</t>
-  </si>
-  <si>
-    <t>m/s 1.1 (28)</t>
-  </si>
-  <si>
-    <t>°C 1.2 (28)</t>
-  </si>
-  <si>
-    <t>m/s Str.Ge_3408940</t>
-  </si>
-  <si>
-    <t>°C Temp._3408940</t>
-  </si>
-  <si>
-    <t>m/s.1</t>
-  </si>
-  <si>
-    <t>°C.1</t>
-  </si>
-  <si>
-    <t>sec Laufzeit</t>
-  </si>
-  <si>
-    <t>PpmCO2 2.1 (28)</t>
-  </si>
-  <si>
-    <t>%rF 3.1 (28)</t>
-  </si>
-  <si>
-    <t>°C 3.2 (28)</t>
-  </si>
-  <si>
-    <t>°C 4.1 (28)</t>
-  </si>
-  <si>
-    <t>°C 1.1 (9)</t>
-  </si>
-  <si>
-    <t>%rF 2.1 (9)</t>
-  </si>
-  <si>
-    <t>°C 2.2 (9)</t>
-  </si>
-  <si>
-    <t>°C -076</t>
-  </si>
-  <si>
-    <t>%rF -076</t>
-  </si>
-  <si>
-    <t>CO2_%</t>
-  </si>
-  <si>
-    <t>ppm -076</t>
-  </si>
-  <si>
-    <t>°C -567</t>
-  </si>
-  <si>
-    <t>m/s -567</t>
-  </si>
-  <si>
-    <t>m/s -940</t>
-  </si>
-  <si>
-    <t>°C -940</t>
-  </si>
-  <si>
-    <t>°C Int</t>
-  </si>
-  <si>
-    <t>hPa Int</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>3E</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>Tw01</t>
-  </si>
-  <si>
-    <t>Tw02</t>
-  </si>
-  <si>
-    <t>Tw03</t>
-  </si>
-  <si>
-    <t>Tw04</t>
-  </si>
-  <si>
-    <t>Tw05</t>
-  </si>
-  <si>
-    <t>Tw06</t>
-  </si>
-  <si>
-    <t>Tw07</t>
-  </si>
-  <si>
-    <t>Tw08</t>
-  </si>
-  <si>
-    <t>Tw09</t>
-  </si>
-  <si>
-    <t>Tw10</t>
-  </si>
-  <si>
-    <t>Tw11</t>
-  </si>
-  <si>
-    <t>Tw12</t>
-  </si>
-  <si>
-    <t>Tw13</t>
-  </si>
-  <si>
-    <t>Tw14</t>
-  </si>
-  <si>
-    <t>Tw15</t>
-  </si>
-  <si>
-    <t>Tw16</t>
-  </si>
-  <si>
-    <t>Tw17</t>
-  </si>
-  <si>
-    <t>Tw18</t>
-  </si>
-  <si>
-    <t>Tw19</t>
-  </si>
-  <si>
-    <t>Tw20</t>
-  </si>
-  <si>
-    <t>Tw21</t>
-  </si>
-  <si>
-    <t>Tw22</t>
-  </si>
-  <si>
-    <t>Tw23</t>
-  </si>
-  <si>
-    <t>Tw24</t>
-  </si>
-  <si>
-    <t>sensor</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>tablename</t>
-  </si>
-  <si>
-    <t>LR_floor</t>
-  </si>
-  <si>
-    <t>t01</t>
-  </si>
-  <si>
-    <t>LR_ceiling</t>
-  </si>
-  <si>
-    <t>t02</t>
-  </si>
-  <si>
-    <t>LR_north</t>
-  </si>
-  <si>
-    <t>t03</t>
-  </si>
-  <si>
-    <t>LR_east</t>
-  </si>
-  <si>
-    <t>t04</t>
-  </si>
-  <si>
-    <t>LR_south</t>
-  </si>
-  <si>
-    <t>t05</t>
-  </si>
-  <si>
-    <t>LR_west</t>
-  </si>
-  <si>
-    <t>t06</t>
-  </si>
-  <si>
-    <t>BD1_floor</t>
-  </si>
-  <si>
-    <t>t07</t>
-  </si>
-  <si>
-    <t>BD1_ceiling</t>
-  </si>
-  <si>
-    <t>t08</t>
-  </si>
-  <si>
-    <t>BD1_north</t>
-  </si>
-  <si>
-    <t>t09</t>
-  </si>
-  <si>
-    <t>BD1_east</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>BD1_south</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>BD1_west</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>BD2_floor</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>BD2_ceiling</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>BD2_north</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>BD2_east</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>BD2_south</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>BD2_west</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>Bath_floor</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>Bath_ceiling</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>Bath_north</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>Bath_east</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
-    <t>Bath_south</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>Bath_west</t>
-  </si>
-  <si>
-    <t>t24</t>
-  </si>
-  <si>
-    <t>T25</t>
-  </si>
-  <si>
-    <t>LR_roof_north</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>T26</t>
-  </si>
-  <si>
-    <t>LR_roof_east</t>
-  </si>
-  <si>
-    <t>t26</t>
-  </si>
-  <si>
-    <t>T27</t>
-  </si>
-  <si>
-    <t>LR_roof_south</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>T28</t>
-  </si>
-  <si>
-    <t>LR_roof_west</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>T29</t>
-  </si>
-  <si>
-    <t>BD1_roof_east</t>
-  </si>
-  <si>
-    <t>t29</t>
-  </si>
-  <si>
-    <t>T30</t>
-  </si>
-  <si>
-    <t>BD2_roof_east</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>PpmCO2 (1)</t>
-  </si>
-  <si>
-    <t>%rH 1.1 (11)</t>
-  </si>
-  <si>
-    <t>°C 1.2 (11)</t>
-  </si>
-  <si>
-    <t>m/s 2.1 (11)</t>
-  </si>
-  <si>
-    <t>°C 2.2 (11)</t>
-  </si>
-  <si>
-    <t>°C 3.1 (11)</t>
-  </si>
-  <si>
-    <t>%rH 3.1 (9)</t>
-  </si>
-  <si>
-    <t>°C temp._2445076</t>
-  </si>
-  <si>
-    <t>%rH rel humidity_2445076</t>
-  </si>
-  <si>
-    <t>°C temp._2435567</t>
-  </si>
-  <si>
-    <t>m/s vel. flow_2435567</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>eshl_summer_wall</t>
-  </si>
-  <si>
-    <t>eshl_winter_wall</t>
-  </si>
-  <si>
-    <t>cbo_summer_wall</t>
-  </si>
-  <si>
-    <t>cbo_winter_wall</t>
   </si>
 </sst>
 </file>
@@ -2585,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,10 +2615,10 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2635,13 +2635,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2661,10 +2661,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2684,10 +2684,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,10 +2707,10 @@
         <v>29</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,10 +2730,10 @@
         <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,10 +2753,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2776,10 +2776,10 @@
         <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2799,10 +2799,10 @@
         <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2822,10 +2822,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2868,10 +2868,10 @@
         <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,10 +2891,10 @@
         <v>30</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2914,10 +2914,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2937,10 +2937,10 @@
         <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2960,10 +2960,10 @@
         <v>31</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2980,13 +2980,13 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,13 +3003,13 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3026,13 +3026,13 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3049,13 +3049,13 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3072,13 +3072,13 @@
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D97AABE-6E83-4911-B53A-9B9C3CD8CDAF}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3115,31 +3115,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="G1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="I1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3811,296 +3811,296 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>80</v>
-      </c>
       <c r="D1" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="65" t="s">
-        <v>80</v>
-      </c>
       <c r="G1" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="69" t="s">
-        <v>80</v>
-      </c>
       <c r="J1" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="72" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="72" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>82</v>
-      </c>
       <c r="D2" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="64" t="s">
-        <v>82</v>
-      </c>
       <c r="G2" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="71" t="s">
         <v>120</v>
-      </c>
-      <c r="K2" s="71" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="64" t="s">
-        <v>84</v>
-      </c>
       <c r="G3" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="71" t="s">
         <v>122</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>86</v>
-      </c>
       <c r="G4" s="68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="71" t="s">
         <v>124</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="68" t="s">
-        <v>114</v>
-      </c>
       <c r="J6" s="71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>102</v>
-      </c>
       <c r="G7" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="68" t="s">
-        <v>116</v>
-      </c>
       <c r="J7" s="71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K7" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K8" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4119,395 +4119,395 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="80"/>
       <c r="D1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="81" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>80</v>
       </c>
       <c r="F1" s="80"/>
       <c r="G1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="81" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>80</v>
       </c>
       <c r="I1" s="80"/>
       <c r="J1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="81" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="81" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="80" t="s">
         <v>120</v>
-      </c>
-      <c r="K2" s="80" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>84</v>
-      </c>
       <c r="G3" s="77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="80" t="s">
         <v>122</v>
-      </c>
-      <c r="K3" s="80" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="75" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>86</v>
-      </c>
       <c r="G4" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="80" t="s">
         <v>124</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>100</v>
-      </c>
       <c r="G6" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" s="80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>102</v>
-      </c>
       <c r="G7" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="77" t="s">
-        <v>189</v>
-      </c>
       <c r="J7" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K7" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K8" s="82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="75" t="s">
-        <v>100</v>
-      </c>
       <c r="D11" s="76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="75" t="s">
-        <v>102</v>
-      </c>
       <c r="D12" s="76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" s="79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" s="77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="77" t="s">
         <v>113</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="77" t="s">
         <v>115</v>
-      </c>
-      <c r="H18" s="77" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G20" s="77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G21" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G22" s="77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G23" s="77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H23" s="77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G24" s="77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H24" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4528,27 +4528,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="83" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="54">
         <v>10950495</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="86">
         <v>20274900</v>
@@ -4556,13 +4556,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="57">
         <v>20269839</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="84">
         <v>20269839</v>
@@ -4570,13 +4570,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="52">
         <v>20274901</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="84">
         <v>20274901</v>
@@ -4584,13 +4584,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="52">
         <v>10773515</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="84">
         <v>10773515</v>
@@ -4598,13 +4598,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="52">
         <v>20269806</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6" s="84">
         <v>20269806</v>
@@ -4612,13 +4612,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="57">
         <v>10773511</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="84">
         <v>10950495</v>
@@ -4626,13 +4626,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="52">
         <v>10950495</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="84">
         <v>10950492</v>
@@ -4640,13 +4640,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="52">
         <v>10950492</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" s="84">
         <v>20269834</v>
@@ -4654,13 +4654,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="52">
         <v>20269834</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" s="84">
         <v>10773514</v>
@@ -4668,13 +4668,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="52">
         <v>10773514</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" s="84">
         <v>20269811</v>
@@ -4682,13 +4682,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="52">
         <v>20269811</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" s="84">
         <v>20269842</v>
@@ -4696,13 +4696,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="52">
         <v>20269842</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="84">
         <v>20269828</v>
@@ -4710,13 +4710,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="52">
         <v>20269828</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="84">
         <v>10950491</v>
@@ -4724,13 +4724,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="52">
         <v>10950491</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15" s="84">
         <v>10950493</v>
@@ -4738,13 +4738,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="52">
         <v>10950493</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" s="84">
         <v>20269831</v>
@@ -4752,13 +4752,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="52">
         <v>20269831</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="84">
         <v>20269838</v>
@@ -4766,13 +4766,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="52">
         <v>20269838</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E18" s="84">
         <v>20269833</v>
@@ -4780,13 +4780,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="52">
         <v>20269833</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="84">
         <v>20269827</v>
@@ -4794,13 +4794,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="52">
         <v>20269829</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="84">
         <v>10773512</v>
@@ -4808,13 +4808,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="52">
         <v>20269827</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" s="84">
         <v>20269840</v>
@@ -4822,13 +4822,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="52">
         <v>10773512</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="84">
         <v>20269829</v>
@@ -4836,13 +4836,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="52">
         <v>20269840</v>
       </c>
       <c r="D23" s="86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="84">
         <v>20269841</v>
@@ -4850,13 +4850,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="52">
         <v>20269830</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="84">
         <v>20269832</v>
@@ -4864,13 +4864,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="52">
         <v>20269841</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="84">
         <v>20269835</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="52">
         <v>20269832</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="57">
         <v>10773513</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="52">
         <v>20274900</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="52">
         <v>20269835</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="57">
         <v>20269836</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="57">
         <v>10950494</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="57">
         <v>20269837</v>
@@ -4950,27 +4950,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="94" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="94" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="35">
         <v>20269827</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="96">
         <v>20269827</v>
@@ -4978,13 +4978,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="35">
         <v>20269829</v>
       </c>
       <c r="D3" s="97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="96">
         <v>20269829</v>
@@ -4992,13 +4992,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="35">
         <v>10773513</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="96">
         <v>10773513</v>
@@ -5006,13 +5006,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="35">
         <v>20269838</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="96">
         <v>20269838</v>
@@ -5020,13 +5020,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="35">
         <v>20269832</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="96">
         <v>20269832</v>
@@ -5034,13 +5034,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="35">
         <v>20269833</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="96">
         <v>20269833</v>
@@ -5048,13 +5048,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="35">
         <v>20269834</v>
       </c>
       <c r="D8" s="95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="96">
         <v>20269834</v>
@@ -5062,13 +5062,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="35">
         <v>10773515</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="96">
         <v>10773515</v>
@@ -5076,13 +5076,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="35">
         <v>20269839</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="96">
         <v>20269839</v>
@@ -5090,13 +5090,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="35">
         <v>10773512</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="96">
         <v>10773512</v>
@@ -5104,13 +5104,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="35">
         <v>20269837</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="96">
         <v>20269837</v>
@@ -5118,13 +5118,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="35">
         <v>20269830</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="96">
         <v>20269830</v>
@@ -5132,13 +5132,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="35">
         <v>20269840</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="96">
         <v>20269840</v>
@@ -5146,13 +5146,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="35">
         <v>20269836</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="96">
         <v>20269836</v>
@@ -5160,13 +5160,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="35">
         <v>10950491</v>
       </c>
       <c r="D16" s="95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="96">
         <v>10950491</v>
@@ -5174,13 +5174,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="35">
         <v>20269835</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="96">
         <v>20269835</v>
@@ -5188,13 +5188,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="35">
         <v>10773511</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="96">
         <v>10773511</v>
@@ -5202,13 +5202,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="35">
         <v>20269841</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="96">
         <v>20269841</v>
@@ -5216,13 +5216,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="35">
         <v>20269806</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="96">
         <v>20269806</v>
@@ -5230,13 +5230,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="35">
         <v>10950493</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="96">
         <v>10950493</v>
@@ -5244,13 +5244,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="35">
         <v>20274900</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="96">
         <v>20274900</v>
@@ -5258,13 +5258,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="35">
         <v>10950494</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="96">
         <v>10950494</v>
@@ -5272,13 +5272,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="35">
         <v>20269831</v>
       </c>
       <c r="D24" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="96">
         <v>20269831</v>
@@ -5286,13 +5286,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="35">
         <v>20269811</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="96">
         <v>20269811</v>
@@ -5300,13 +5300,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="35">
         <v>10950492</v>
       </c>
       <c r="D26" s="95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="96">
         <v>10950492</v>
@@ -5314,13 +5314,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="35">
         <v>10950495</v>
       </c>
       <c r="D27" s="99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="96">
         <v>10950495</v>
@@ -5328,13 +5328,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="35">
         <v>10773514</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="96">
         <v>10773514</v>
@@ -5342,13 +5342,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="35">
         <v>20269842</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="96">
         <v>20269842</v>
@@ -5356,13 +5356,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="35">
         <v>20274901</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="96">
         <v>20274901</v>
@@ -5370,13 +5370,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="35">
         <v>20269828</v>
       </c>
       <c r="D31" s="99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="96">
         <v>20269828</v>
@@ -5406,17 +5406,17 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="102" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="102" t="s">
-        <v>80</v>
       </c>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
@@ -5433,17 +5433,17 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>82</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="101" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="101" t="s">
-        <v>82</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -5460,17 +5460,17 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>84</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="101" t="s">
         <v>83</v>
-      </c>
-      <c r="E3" s="101" t="s">
-        <v>84</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="44"/>
@@ -5487,17 +5487,17 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>86</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="101" t="s">
         <v>85</v>
-      </c>
-      <c r="E4" s="101" t="s">
-        <v>86</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="45"/>
@@ -5514,17 +5514,17 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>88</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="45"/>
@@ -5541,17 +5541,17 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>90</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="45"/>
@@ -5568,17 +5568,17 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>91</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>92</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="45"/>
@@ -5595,17 +5595,17 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>94</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="101" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="45"/>
@@ -5622,17 +5622,17 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>95</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>96</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="101" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="44"/>
@@ -5649,17 +5649,17 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>97</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>98</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
@@ -5676,17 +5676,17 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>100</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
@@ -5703,17 +5703,17 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>101</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>102</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
@@ -5730,17 +5730,17 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>81</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>82</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="101" t="s">
         <v>81</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>82</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
@@ -5757,17 +5757,17 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>83</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>84</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="101" t="s">
         <v>83</v>
-      </c>
-      <c r="E14" s="101" t="s">
-        <v>84</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
@@ -5784,17 +5784,17 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>86</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="101" t="s">
         <v>85</v>
-      </c>
-      <c r="E15" s="101" t="s">
-        <v>86</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
@@ -5811,17 +5811,17 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
@@ -5838,310 +5838,310 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>100</v>
-      </c>
       <c r="D17" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>102</v>
-      </c>
       <c r="D18" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18" s="101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="101" t="s">
         <v>81</v>
-      </c>
-      <c r="E24" s="101" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>114</v>
-      </c>
       <c r="D28" s="101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E28" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>116</v>
-      </c>
       <c r="D29" s="101" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E29" s="101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="101" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E31" s="101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E32" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>121</v>
-      </c>
       <c r="D33" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="101" t="s">
         <v>120</v>
-      </c>
-      <c r="E33" s="101" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>123</v>
-      </c>
       <c r="D34" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="101" t="s">
         <v>122</v>
-      </c>
-      <c r="E34" s="101" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>125</v>
-      </c>
       <c r="D35" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="101" t="s">
         <v>124</v>
-      </c>
-      <c r="E35" s="101" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" s="101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6162,27 +6162,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="91" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="91" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="58">
         <v>9759956</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" s="89">
         <v>9759956</v>
@@ -6190,13 +6190,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="58">
         <v>10811406</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" s="89">
         <v>10811406</v>
@@ -6204,13 +6204,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="58">
         <v>1222778</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="89">
         <v>1222778</v>
@@ -6218,13 +6218,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="58">
         <v>9759954</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" s="89">
         <v>9759954</v>
@@ -6232,13 +6232,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="58">
         <v>1222769</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E6" s="89">
         <v>1222769</v>
@@ -6246,13 +6246,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="58">
         <v>10811400</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" s="89">
         <v>10811400</v>
@@ -6260,13 +6260,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="58">
         <v>10811408</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="89">
         <v>10811408</v>
@@ -6274,13 +6274,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="58">
         <v>1222777</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="89">
         <v>1222777</v>
@@ -6288,13 +6288,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="58">
         <v>9759955</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="89">
         <v>9759955</v>
@@ -6302,13 +6302,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="58">
         <v>1222771</v>
       </c>
       <c r="D11" s="89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="89">
         <v>1222771</v>
@@ -6316,13 +6316,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="58">
         <v>1222772</v>
       </c>
       <c r="D12" s="89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="89">
         <v>1222772</v>
@@ -6330,13 +6330,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="58">
         <v>1222767</v>
       </c>
       <c r="D13" s="89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="89">
         <v>1222767</v>
@@ -6344,13 +6344,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="58">
         <v>10811409</v>
       </c>
       <c r="D14" s="89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="89">
         <v>10811409</v>
@@ -6358,13 +6358,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="58">
         <v>10811411</v>
       </c>
       <c r="D15" s="89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" s="89">
         <v>10811411</v>
@@ -6372,13 +6372,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="58">
         <v>10811401</v>
       </c>
       <c r="D16" s="89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" s="89">
         <v>10811401</v>
@@ -6386,13 +6386,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="58">
         <v>1222768</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" s="89">
         <v>1222768</v>
@@ -6400,13 +6400,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="58">
         <v>1222770</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" s="89">
         <v>1222770</v>
@@ -6414,13 +6414,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="58">
         <v>1222776</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" s="89">
         <v>1222776</v>
@@ -6428,13 +6428,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="58">
         <v>1222765</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="89">
         <v>1222765</v>
@@ -6442,13 +6442,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="58">
         <v>1222775</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="89">
         <v>1222775</v>
@@ -6456,13 +6456,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="58">
         <v>10811404</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" s="89">
         <v>10811404</v>
@@ -6470,13 +6470,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="58">
         <v>9759958</v>
       </c>
       <c r="D23" s="89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="89">
         <v>9759958</v>
@@ -6484,13 +6484,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="58">
         <v>10811399</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E24" s="89">
         <v>10811399</v>
@@ -6498,13 +6498,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="58">
         <v>10811398</v>
       </c>
       <c r="D25" s="89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" s="89">
         <v>10811398</v>
@@ -6531,469 +6531,469 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="C1" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="93" t="s">
-        <v>237</v>
-      </c>
       <c r="E1" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="G1" s="105" t="s">
         <v>236</v>
-      </c>
-      <c r="G1" s="105" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="92" t="s">
-        <v>239</v>
-      </c>
       <c r="E2" s="104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G2" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="E3" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>242</v>
-      </c>
       <c r="G3" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>243</v>
-      </c>
       <c r="E4" s="104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G4" s="104" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="E5" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="104" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>246</v>
-      </c>
       <c r="G5" s="104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>247</v>
-      </c>
       <c r="E6" s="104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" s="104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>249</v>
-      </c>
       <c r="E7" s="104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="92" t="s">
-        <v>251</v>
-      </c>
       <c r="E8" s="104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G8" s="104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="92" t="s">
-        <v>253</v>
-      </c>
       <c r="E9" s="104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>255</v>
-      </c>
       <c r="E10" s="104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>257</v>
-      </c>
       <c r="E11" s="104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" s="104" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" s="104" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>259</v>
-      </c>
       <c r="E12" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>261</v>
-      </c>
       <c r="E13" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" s="104" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G13" s="104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>263</v>
-      </c>
       <c r="E14" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G14" s="104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="92" t="s">
         <v>264</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>266</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="92" t="s">
         <v>268</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="92" t="s">
         <v>270</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="92" t="s">
         <v>272</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="92" t="s">
         <v>274</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="92" t="s">
         <v>276</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="92" t="s">
         <v>278</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="92" t="s">
         <v>280</v>
-      </c>
-      <c r="C23" s="92" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="92" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="92" t="s">
         <v>282</v>
-      </c>
-      <c r="C24" s="92" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="92" t="s">
         <v>284</v>
-      </c>
-      <c r="C25" s="92" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="C26" s="92" t="s">
         <v>287</v>
-      </c>
-      <c r="C26" s="92" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="C27" s="92" t="s">
         <v>290</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="C28" s="92" t="s">
         <v>293</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="C29" s="92" t="s">
         <v>296</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="C30" s="92" t="s">
         <v>299</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="C31" s="92" t="s">
         <v>302</v>
-      </c>
-      <c r="C31" s="92" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/master_time_sheet.xlsx
+++ b/master_time_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sauerswa\wichtige Ordner\sauerswa\Codes\Python\Recirculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4B28B-CAF1-4D98-8AF8-55E19659D3D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D07F086-9558-471D-80FF-8F6D95576258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25710" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="16200" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,10 @@
     <sheet name="wall_CBO" sheetId="6" r:id="rId8"/>
     <sheet name="wall_ESHL" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -831,7 +822,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="322">
   <si>
     <t>experiment</t>
   </si>
@@ -929,6 +920,9 @@
     <t>1a,1l,2l,3l,4a_testo,4l,außen</t>
   </si>
   <si>
+    <t>1l,1a_testo,1t,2a_testo,2l,3l,4a_testo,4l,außen</t>
+  </si>
+  <si>
     <t>1a,1l,1l_sub,2l,3f,3l,4a,4a_sub,4a_testo,4l,5flur,5treppe,außen,tr,weather</t>
   </si>
   <si>
@@ -1790,7 +1784,10 @@
     <t>cbo_winter_wall</t>
   </si>
   <si>
-    <t>1l,1a_testo,1t,2a_testo,2l,3l,4a_testo,4l,außen</t>
+    <t>Volume flow</t>
+  </si>
+  <si>
+    <t>Volume flow std</t>
   </si>
 </sst>
 </file>
@@ -2103,17 +2100,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2302,6 +2291,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -2583,22 +2589,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2615,470 +2624,596 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="99">
+        <v>44019.625</v>
+      </c>
+      <c r="C2" s="99">
+        <v>44019.75</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="101">
+        <v>89.788380638377291</v>
+      </c>
+      <c r="I2">
+        <v>7.9267290381016347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="103">
+        <v>44021.748611111114</v>
+      </c>
+      <c r="C3" s="103">
+        <v>44021.854166666664</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="105">
+        <v>128.443787127907</v>
+      </c>
+      <c r="I3">
+        <v>12.71495918799441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="103">
+        <v>44020.429166666669</v>
+      </c>
+      <c r="C4" s="103">
+        <v>44020.465277777781</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="105">
+        <v>361.22641182562569</v>
+      </c>
+      <c r="I4">
+        <v>26.09190415901746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="103">
+        <v>44020.638888888891</v>
+      </c>
+      <c r="C5" s="103">
+        <v>44020.902777777781</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="105">
+        <v>27.206006314210381</v>
+      </c>
+      <c r="I5">
+        <v>2.578901375878039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="103">
+        <v>44021.547222222223</v>
+      </c>
+      <c r="C6" s="103">
+        <v>44021.694444444445</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="105">
+        <v>68.020410710102254</v>
+      </c>
+      <c r="I6">
+        <v>10.58682814510475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="107">
+        <v>44020.545138888891</v>
+      </c>
+      <c r="C7" s="107">
+        <v>44020.59375</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="109">
+        <v>300.80303540782103</v>
+      </c>
+      <c r="I7">
+        <v>25.123658285866149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="99">
+        <v>43887.65902777778</v>
+      </c>
+      <c r="C8" s="99">
+        <v>43887.75</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="100" t="s">
+        <v>317</v>
+      </c>
+      <c r="H8" s="101">
+        <v>89.788380638377291</v>
+      </c>
+      <c r="I8">
+        <v>7.9267290381016347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="103">
+        <v>43887.893055555556</v>
+      </c>
+      <c r="C9" s="103">
+        <v>43887.970138888886</v>
+      </c>
+      <c r="D9" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="105">
+        <v>128.443787127907</v>
+      </c>
+      <c r="I9">
+        <v>12.71495918799441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="103">
+        <v>43887.798611111109</v>
+      </c>
+      <c r="C10" s="103">
+        <v>43887.829861111109</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="105">
+        <v>361.22641182562569</v>
+      </c>
+      <c r="I10">
+        <v>26.09190415901746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="103">
+        <v>43887.143055555556</v>
+      </c>
+      <c r="C11" s="103">
+        <v>43887.354166666664</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="105">
+        <v>27.206006314210381</v>
+      </c>
+      <c r="I11">
+        <v>2.578901375878039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="103">
+        <v>43888.063888888886</v>
+      </c>
+      <c r="C12" s="103">
+        <v>43888.17291666667</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" s="105">
+        <v>68.020410710102254</v>
+      </c>
+      <c r="I12">
+        <v>10.58682814510475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="107">
+        <v>43887.463194444441</v>
+      </c>
+      <c r="C13" s="107">
+        <v>43887.520833333336</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="109">
+        <v>300.80303540782103</v>
+      </c>
+      <c r="I13">
+        <v>25.123658285866149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="99">
+        <v>43692.614965277775</v>
+      </c>
+      <c r="C14" s="99">
+        <v>43692.777083333334</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="H14" s="101">
+        <v>48.210907294354882</v>
+      </c>
+      <c r="I14">
+        <v>7.2358364157376371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="103">
+        <v>43690.547222222223</v>
+      </c>
+      <c r="C15" s="103">
+        <v>43690.708333333336</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="104" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" s="105">
+        <v>93.338978269456305</v>
+      </c>
+      <c r="I15">
+        <v>16.86053836704944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="103">
+        <v>43693.470833333333</v>
+      </c>
+      <c r="C16" s="103">
+        <v>43693.696527777778</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" s="105">
+        <v>39.398154343196182</v>
+      </c>
+      <c r="I16">
+        <v>8.5544387100584309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="107">
+        <v>43697.480555555558</v>
+      </c>
+      <c r="C17" s="107">
+        <v>43697.704861111109</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="108" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="109">
+        <v>80.151670603926306</v>
+      </c>
+      <c r="I17">
+        <v>13.326912199363541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="99">
+        <v>43860.508796296293</v>
+      </c>
+      <c r="C18" s="99">
+        <v>43860.666608796295</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44019.625</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44019.75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F18" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44021.748611111114</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44021.854166666664</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="104" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44020.429166666669</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44020.465277777781</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="104" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44020.638888888891</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44020.902777777781</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44021.547222222223</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44021.694444444445</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="104" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44020.545138888891</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44020.59375</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="104" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>43887.65902777778</v>
-      </c>
-      <c r="C8" s="4">
-        <v>43887.75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>43887.893055555556</v>
-      </c>
-      <c r="C9" s="4">
-        <v>43887.970138888886</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <v>43887.798611111109</v>
-      </c>
-      <c r="C10" s="4">
-        <v>43887.829861111109</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="104" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>43887.143055555556</v>
-      </c>
-      <c r="C11" s="4">
-        <v>43887.354166666664</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
-        <v>43888.063888888886</v>
-      </c>
-      <c r="C12" s="4">
-        <v>43888.17291666667</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="104" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4">
-        <v>43887.463194444441</v>
-      </c>
-      <c r="C13" s="4">
-        <v>43887.520833333336</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
-        <v>43692.614965277775</v>
-      </c>
-      <c r="C14" s="6">
-        <v>43692.777083333334</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6">
-        <v>43690.547222222223</v>
-      </c>
-      <c r="C15" s="6">
-        <v>43690.708333333336</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="104" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6">
-        <v>43693.470833333333</v>
-      </c>
-      <c r="C16" s="6">
-        <v>43693.696527777778</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6">
-        <v>43697.480555555558</v>
-      </c>
-      <c r="C17" s="6">
-        <v>43697.704861111109</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G18" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="104" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="7">
-        <v>43860.508796296293</v>
-      </c>
-      <c r="C18" s="7">
-        <v>43860.666608796295</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="H18" s="101">
+        <v>48.210907294354882</v>
+      </c>
+      <c r="I18">
+        <v>7.2358364157376371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="103">
+        <v>43858.757233796299</v>
+      </c>
+      <c r="C19" s="103">
+        <v>43858.898495370369</v>
+      </c>
+      <c r="D19" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7">
-        <v>43858.757233796299</v>
-      </c>
-      <c r="C19" s="7">
-        <v>43858.898495370369</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="104" t="s">
+        <v>319</v>
+      </c>
+      <c r="H19" s="105">
+        <v>93.338978269456305</v>
+      </c>
+      <c r="I19">
+        <v>16.86053836704944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="103">
+        <v>43859.617013888892</v>
+      </c>
+      <c r="C20" s="103">
+        <v>43859.784201388888</v>
+      </c>
+      <c r="D20" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="104" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7">
-        <v>43859.617013888892</v>
-      </c>
-      <c r="C20" s="7">
-        <v>43859.784201388888</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="104" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" s="105">
+        <v>39.398154343196182</v>
+      </c>
+      <c r="I20">
+        <v>8.5544387100584309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="107">
+        <v>43861.46979166667</v>
+      </c>
+      <c r="C21" s="107">
+        <v>43861.597222222219</v>
+      </c>
+      <c r="D21" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="104" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7">
-        <v>43861.46979166667</v>
-      </c>
-      <c r="C21" s="7">
-        <v>43861.597222222219</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="104" t="s">
-        <v>318</v>
+      <c r="E21" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="108" t="s">
+        <v>319</v>
+      </c>
+      <c r="H21" s="109">
+        <v>80.151670603926306</v>
+      </c>
+      <c r="I21">
+        <v>13.326912199363541</v>
       </c>
     </row>
   </sheetData>
@@ -3092,8 +3227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D97AABE-6E83-4911-B53A-9B9C3CD8CDAF}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,684 +3236,684 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="10">
         <v>-1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="11">
         <v>48</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="11">
         <v>7</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="11">
         <v>185</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="22">
         <v>0.26</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="19">
         <v>0.04</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="22">
         <v>3.83</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="16">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="13">
         <v>-1.3</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="12">
         <v>93</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="12">
         <v>17</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="12">
         <v>185</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="23">
         <v>0.5</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="20">
         <v>0.09</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="23">
         <v>1.98</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="17">
         <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="13">
         <v>2.8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="12">
         <v>39</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="12">
         <v>9</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="12">
         <v>185</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="23">
         <v>0.21</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="20">
         <v>0.05</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="23">
         <v>4.6900000000000004</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="17">
         <v>1.02</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="14">
         <v>-5.6</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <v>80</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <v>13</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="15">
         <v>185</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="24">
         <v>0.43</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="24">
         <v>2.31</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="18">
         <v>0.38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="10">
         <v>-2.9</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="11">
         <v>48</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="11">
         <v>7</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="11">
         <v>185</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="22">
         <v>0.26</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="19">
         <v>0.04</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="22">
         <v>3.83</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="16">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="13">
         <v>-11</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="12">
         <v>93</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="12">
         <v>17</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="12">
         <v>185</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="23">
         <v>0.5</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="20">
         <v>0.09</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="23">
         <v>1.98</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="17">
         <v>0.36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="13">
         <v>-8.5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="12">
         <v>39</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="12">
         <v>9</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="12">
         <v>185</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="23">
         <v>0.21</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="20">
         <v>0.05</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="23">
         <v>4.6900000000000004</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="17">
         <v>1.02</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="14">
         <v>-1.7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="15">
         <v>80</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="15">
         <v>13</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="15">
         <v>185</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="24">
         <v>0.43</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="24">
         <v>2.31</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="18">
         <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="10">
         <v>1.4</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="11">
         <v>90</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="11">
         <v>8</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="11">
         <v>134</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="22">
         <v>0.67</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="19">
         <v>0.06</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="22">
         <v>1.49</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="16">
         <v>0.13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="13">
         <v>6.9</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="12">
         <v>128</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="12">
         <v>13</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="12">
         <v>134</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="23">
         <v>0.96</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="20">
         <v>0.1</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="23">
         <v>1.04</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="13">
         <v>-0.3</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="12">
         <v>361</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="12">
         <v>26</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="12">
         <v>134</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="23">
         <v>2.7</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="20">
         <v>0.2</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="23">
         <v>0.37</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="17">
         <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="13">
         <v>0.2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="12">
         <v>27</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="12">
         <v>3</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="12">
         <v>134</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="23">
         <v>0.2</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="20">
         <v>0.02</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="23">
         <v>4.92</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="17">
         <v>0.47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="13">
         <v>8.4</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="12">
         <v>68</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="12">
         <v>11</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="12">
         <v>134</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="12">
         <v>1</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="23">
         <v>0.51</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="20">
         <v>0.08</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="23">
         <v>1.97</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="17">
         <v>0.31</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="14">
         <v>2.4</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="15">
         <v>301</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="15">
         <v>25</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="15">
         <v>134</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="15">
         <v>1</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="24">
         <v>2.25</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="21">
         <v>0.19</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="24">
         <v>0.45</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="18">
         <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="10">
         <v>-15.5</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="11">
         <v>90</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="11">
         <v>8</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="11">
         <v>134</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="22">
         <v>0.67</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="19">
         <v>0.06</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="22">
         <v>1.49</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="16">
         <v>0.13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="13">
         <v>-18.2</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="12">
         <v>128</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="12">
         <v>13</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="12">
         <v>134</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="23">
         <v>0.96</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="20">
         <v>0.1</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="23">
         <v>1.04</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="13">
         <v>-16.899999999999999</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="12">
         <v>361</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="12">
         <v>26</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="12">
         <v>134</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="12">
         <v>1</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="23">
         <v>2.7</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="20">
         <v>0.2</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="23">
         <v>0.37</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="17">
         <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="13">
         <v>-15.7</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="12">
         <v>27</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="12">
         <v>3</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="12">
         <v>134</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="12">
         <v>1</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="23">
         <v>0.2</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="20">
         <v>0.02</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="23">
         <v>4.92</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="17">
         <v>0.47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="13">
         <v>-16.7</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="12">
         <v>68</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="12">
         <v>11</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="12">
         <v>134</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="12">
         <v>1</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="23">
         <v>0.51</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="20">
         <v>0.08</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="23">
         <v>1.97</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="17">
         <v>0.31</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="14">
         <v>-17.100000000000001</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="15">
         <v>301</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="15">
         <v>25</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="15">
         <v>134</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="15">
         <v>1</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="24">
         <v>2.25</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="21">
         <v>0.19</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="24">
         <v>0.45</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="18">
         <v>0.04</v>
       </c>
     </row>
@@ -3810,297 +3945,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="62" t="s">
+      <c r="A1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="65" t="s">
+      <c r="B1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="69" t="s">
+      <c r="E1" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="72" t="s">
+      <c r="H1" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="64" t="s">
         <v>79</v>
       </c>
+      <c r="K1" s="64" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="73" t="s">
+      <c r="E2" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="71" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="67" t="s">
+      <c r="H10" s="60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="B11" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="71" t="s">
+      <c r="D11" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="K9" s="74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="68" t="s">
-        <v>101</v>
+      <c r="H12" s="60" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4118,396 +4253,396 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="81" t="s">
+      <c r="A1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="81" t="s">
+      <c r="B1" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="81" t="s">
+      <c r="E1" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="81" t="s">
+      <c r="H1" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73" t="s">
         <v>79</v>
       </c>
+      <c r="K1" s="73" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="80" t="s">
+      <c r="A2" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="80" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="80" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="76" t="s">
+      <c r="H21" s="69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="J7" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="80" t="s">
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="K9" s="82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G15" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G16" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" s="77" t="s">
-        <v>101</v>
+      <c r="H23" s="69" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" s="77" t="s">
-        <v>85</v>
+      <c r="G24" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4527,408 +4662,408 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="83" t="s">
+      <c r="B1" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="75" t="s">
         <v>47</v>
       </c>
+      <c r="E1" s="75" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="54">
+      <c r="A2" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="46">
         <v>10950495</v>
       </c>
-      <c r="D2" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="86">
+      <c r="D2" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="78">
         <v>20274900</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="57">
+      <c r="A3" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="49">
         <v>20269839</v>
       </c>
-      <c r="D3" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="84">
+      <c r="D3" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="76">
         <v>20269839</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="52">
+      <c r="A4" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="44">
         <v>20274901</v>
       </c>
-      <c r="D4" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="84">
+      <c r="D4" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="76">
         <v>20274901</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="52">
+      <c r="A5" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="44">
         <v>10773515</v>
       </c>
-      <c r="D5" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="84">
+      <c r="D5" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="76">
         <v>10773515</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="52">
+      <c r="A6" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="44">
         <v>20269806</v>
       </c>
-      <c r="D6" s="86" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="84">
+      <c r="D6" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="76">
         <v>20269806</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="57">
+      <c r="A7" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="49">
         <v>10773511</v>
       </c>
-      <c r="D7" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="84">
+      <c r="D7" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="76">
         <v>10950495</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="52">
+      <c r="A8" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="44">
         <v>10950495</v>
       </c>
-      <c r="D8" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="84">
+      <c r="D8" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="76">
         <v>10950492</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="52">
+      <c r="A9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="44">
         <v>10950492</v>
       </c>
-      <c r="D9" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="84">
+      <c r="D9" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="76">
         <v>20269834</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="52">
+      <c r="A10" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="44">
         <v>20269834</v>
       </c>
-      <c r="D10" s="85" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="84">
+      <c r="D10" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="76">
         <v>10773514</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="52">
+      <c r="A11" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="44">
         <v>10773514</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="84">
+      <c r="D11" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="76">
         <v>20269811</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="52">
+      <c r="A12" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="44">
         <v>20269811</v>
       </c>
-      <c r="D12" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="84">
+      <c r="D12" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="76">
         <v>20269842</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="52">
+      <c r="A13" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="44">
         <v>20269842</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="84">
+      <c r="D13" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="76">
         <v>20269828</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="52">
+      <c r="A14" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="44">
         <v>20269828</v>
       </c>
-      <c r="D14" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="84">
+      <c r="D14" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="76">
         <v>10950491</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="52">
+      <c r="A15" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="44">
         <v>10950491</v>
       </c>
-      <c r="D15" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="84">
+      <c r="D15" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="76">
         <v>10950493</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="52">
+      <c r="A16" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="44">
         <v>10950493</v>
       </c>
-      <c r="D16" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="84">
+      <c r="D16" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="76">
         <v>20269831</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="52">
+      <c r="A17" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="44">
         <v>20269831</v>
       </c>
-      <c r="D17" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="84">
+      <c r="D17" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="76">
         <v>20269838</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="52">
+      <c r="A18" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="44">
         <v>20269838</v>
       </c>
-      <c r="D18" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="84">
+      <c r="D18" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="76">
         <v>20269833</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="52">
+      <c r="A19" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="44">
         <v>20269833</v>
       </c>
-      <c r="D19" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="84">
+      <c r="D19" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="76">
         <v>20269827</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="52">
+      <c r="A20" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="44">
         <v>20269829</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="76">
+        <v>10773512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="84">
+      <c r="B21" s="44">
+        <v>20269827</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="76">
+        <v>20269840</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="44">
         <v>10773512</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="52">
-        <v>20269827</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="84">
+      <c r="D22" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="76">
+        <v>20269829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="44">
         <v>20269840</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="52">
-        <v>10773512</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="84">
-        <v>20269829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="52">
-        <v>20269840</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="84">
+      <c r="D23" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="76">
         <v>20269841</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="52">
+      <c r="A24" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="44">
         <v>20269830</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="76">
+        <v>20269832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="84">
+      <c r="B25" s="44">
+        <v>20269841</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="76">
+        <v>20269835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="44">
         <v>20269832</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="52">
-        <v>20269841</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="84">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="49">
+        <v>10773513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="44">
+        <v>20274900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="44">
         <v>20269835</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="52">
-        <v>20269832</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="57">
-        <v>10773513</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="52">
-        <v>20274900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="52">
-        <v>20269835</v>
-      </c>
-    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="57">
+      <c r="A30" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="49">
         <v>20269836</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="57">
+      <c r="A31" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="49">
         <v>10950494</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="57">
+      <c r="A32" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="49">
         <v>20269837</v>
       </c>
     </row>
@@ -4949,436 +5084,436 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="94" t="s">
+      <c r="B1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="86" t="s">
         <v>47</v>
       </c>
+      <c r="E1" s="86" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="35">
+      <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="27">
         <v>20269827</v>
       </c>
-      <c r="D2" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="96">
+      <c r="D2" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="88">
         <v>20269827</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="35">
+      <c r="A3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="27">
         <v>20269829</v>
       </c>
-      <c r="D3" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="96">
+      <c r="D3" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="88">
         <v>20269829</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="A4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="27">
         <v>10773513</v>
       </c>
-      <c r="D4" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="96">
+      <c r="D4" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="88">
         <v>10773513</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="35">
+      <c r="A5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="27">
         <v>20269838</v>
       </c>
-      <c r="D5" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="96">
+      <c r="D5" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="88">
         <v>20269838</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="35">
+      <c r="A6" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="27">
         <v>20269832</v>
       </c>
-      <c r="D6" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="96">
+      <c r="D6" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="88">
         <v>20269832</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="35">
+      <c r="A7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="27">
         <v>20269833</v>
       </c>
-      <c r="D7" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="96">
+      <c r="D7" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="88">
         <v>20269833</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="35">
+      <c r="A8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="27">
         <v>20269834</v>
       </c>
-      <c r="D8" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="96">
+      <c r="D8" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="88">
         <v>20269834</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="35">
+      <c r="A9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="27">
         <v>10773515</v>
       </c>
-      <c r="D9" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="96">
+      <c r="D9" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="88">
         <v>10773515</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="35">
+      <c r="A10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="27">
         <v>20269839</v>
       </c>
-      <c r="D10" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="96">
+      <c r="D10" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="88">
         <v>20269839</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="35">
+      <c r="A11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="27">
         <v>10773512</v>
       </c>
-      <c r="D11" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="96">
+      <c r="D11" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="88">
         <v>10773512</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="35">
+      <c r="A12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="27">
         <v>20269837</v>
       </c>
-      <c r="D12" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="96">
+      <c r="D12" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="88">
         <v>20269837</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="35">
+      <c r="A13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="27">
         <v>20269830</v>
       </c>
-      <c r="D13" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="96">
+      <c r="D13" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="88">
         <v>20269830</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="35">
+      <c r="A14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="27">
         <v>20269840</v>
       </c>
-      <c r="D14" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="96">
+      <c r="D14" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="88">
         <v>20269840</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="35">
+      <c r="A15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="27">
         <v>20269836</v>
       </c>
-      <c r="D15" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="96">
+      <c r="D15" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="88">
         <v>20269836</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="35">
+      <c r="A16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="27">
         <v>10950491</v>
       </c>
-      <c r="D16" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="96">
+      <c r="D16" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="88">
         <v>10950491</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="35">
+      <c r="A17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="27">
         <v>20269835</v>
       </c>
-      <c r="D17" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="96">
+      <c r="D17" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="88">
         <v>20269835</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="35">
+      <c r="A18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="27">
         <v>10773511</v>
       </c>
-      <c r="D18" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="96">
+      <c r="D18" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="88">
         <v>10773511</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="35">
+      <c r="A19" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="27">
         <v>20269841</v>
       </c>
-      <c r="D19" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="96">
+      <c r="D19" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="88">
         <v>20269841</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="35">
+      <c r="A20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="27">
         <v>20269806</v>
       </c>
-      <c r="D20" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="96">
+      <c r="D20" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="88">
         <v>20269806</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="35">
+      <c r="A21" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="27">
         <v>10950493</v>
       </c>
-      <c r="D21" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="96">
+      <c r="D21" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="88">
         <v>10950493</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="35">
+      <c r="A22" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="27">
         <v>20274900</v>
       </c>
-      <c r="D22" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="96">
+      <c r="D22" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="88">
         <v>20274900</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="35">
+      <c r="A23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="27">
         <v>10950494</v>
       </c>
-      <c r="D23" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="96">
+      <c r="D23" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="88">
         <v>10950494</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="35">
+      <c r="A24" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="27">
         <v>20269831</v>
       </c>
-      <c r="D24" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="96">
+      <c r="D24" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="88">
         <v>20269831</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="35">
+      <c r="A25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="27">
         <v>20269811</v>
       </c>
-      <c r="D25" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="96">
+      <c r="D25" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="88">
         <v>20269811</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="35">
+      <c r="A26" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="27">
         <v>10950492</v>
       </c>
-      <c r="D26" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="96">
+      <c r="D26" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="88">
         <v>10950492</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="35">
+      <c r="A27" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="27">
         <v>10950495</v>
       </c>
-      <c r="D27" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="96">
+      <c r="D27" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="88">
         <v>10950495</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="35">
+      <c r="A28" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="27">
         <v>10773514</v>
       </c>
-      <c r="D28" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="96">
+      <c r="D28" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="88">
         <v>10773514</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="35">
+      <c r="A29" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="27">
         <v>20269842</v>
       </c>
-      <c r="D29" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="96">
+      <c r="D29" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="88">
         <v>20269842</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="35">
+      <c r="A30" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="27">
         <v>20274901</v>
       </c>
-      <c r="D30" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="96">
+      <c r="D30" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="88">
         <v>20274901</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="35">
+      <c r="A31" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="27">
         <v>20269828</v>
       </c>
-      <c r="D31" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="96">
+      <c r="D31" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="88">
         <v>20269828</v>
       </c>
     </row>
@@ -5405,743 +5540,743 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="102" t="s">
+      <c r="B1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="E1" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="E2" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="39"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="93" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="39"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="93" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="39"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="101" t="s">
+      <c r="B14" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>310</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="D24" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="101" t="s">
+      <c r="D25" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="101" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="47"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" s="93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="47"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="E7" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="101" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="D30" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>313</v>
+      </c>
+      <c r="E31" s="93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="101" t="s">
-        <v>307</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="D32" s="93" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="101" t="s">
-        <v>308</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="101" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="101" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="101" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="101" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="101" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="101" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="101" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="101" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="101" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="101" t="s">
-        <v>310</v>
-      </c>
-      <c r="E28" s="101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="101" t="s">
-        <v>311</v>
-      </c>
-      <c r="E29" s="101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="101" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="101" t="s">
-        <v>312</v>
-      </c>
-      <c r="E31" s="101" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>313</v>
-      </c>
-      <c r="E32" s="101" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="101" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="101" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="101" t="s">
-        <v>95</v>
+      <c r="D38" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -6161,352 +6296,352 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="91" t="s">
+      <c r="B1" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="82" t="s">
         <v>47</v>
       </c>
+      <c r="E1" s="83" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="58">
+      <c r="A2" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="50">
         <v>9759956</v>
       </c>
-      <c r="D2" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="89">
+      <c r="D2" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="81">
         <v>9759956</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="58">
+      <c r="A3" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="50">
         <v>10811406</v>
       </c>
-      <c r="D3" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="89">
+      <c r="D3" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="81">
         <v>10811406</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="58">
+      <c r="A4" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="50">
         <v>1222778</v>
       </c>
-      <c r="D4" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="89">
+      <c r="D4" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="81">
         <v>1222778</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="58">
+      <c r="A5" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="50">
         <v>9759954</v>
       </c>
-      <c r="D5" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="89">
+      <c r="D5" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="81">
         <v>9759954</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="58">
+      <c r="A6" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="50">
         <v>1222769</v>
       </c>
-      <c r="D6" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="89">
+      <c r="D6" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="81">
         <v>1222769</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="58">
+      <c r="A7" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="50">
         <v>10811400</v>
       </c>
-      <c r="D7" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="89">
+      <c r="D7" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="81">
         <v>10811400</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="58">
+      <c r="A8" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="50">
         <v>10811408</v>
       </c>
-      <c r="D8" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="89">
+      <c r="D8" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="81">
         <v>10811408</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="58">
+      <c r="A9" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="50">
         <v>1222777</v>
       </c>
-      <c r="D9" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="89">
+      <c r="D9" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="81">
         <v>1222777</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="58">
+      <c r="A10" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="50">
         <v>9759955</v>
       </c>
-      <c r="D10" s="89" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="89">
+      <c r="D10" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="81">
         <v>9759955</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="58">
+      <c r="A11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="50">
         <v>1222771</v>
       </c>
-      <c r="D11" s="89" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="89">
+      <c r="D11" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="81">
         <v>1222771</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="58">
+      <c r="A12" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="50">
         <v>1222772</v>
       </c>
-      <c r="D12" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="89">
+      <c r="D12" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="81">
         <v>1222772</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="58">
+      <c r="A13" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="50">
         <v>1222767</v>
       </c>
-      <c r="D13" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="89">
+      <c r="D13" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="81">
         <v>1222767</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="58">
+      <c r="A14" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="50">
         <v>10811409</v>
       </c>
-      <c r="D14" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="89">
+      <c r="D14" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="81">
         <v>10811409</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="58">
+      <c r="A15" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="50">
         <v>10811411</v>
       </c>
-      <c r="D15" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="89">
+      <c r="D15" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="81">
         <v>10811411</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="58">
+      <c r="A16" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="50">
         <v>10811401</v>
       </c>
-      <c r="D16" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="89">
+      <c r="D16" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="81">
         <v>10811401</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="58">
+      <c r="A17" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="50">
         <v>1222768</v>
       </c>
-      <c r="D17" s="89" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="89">
+      <c r="D17" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="81">
         <v>1222768</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="58">
+      <c r="A18" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="50">
         <v>1222770</v>
       </c>
-      <c r="D18" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="89">
+      <c r="D18" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="81">
         <v>1222770</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="58">
+      <c r="A19" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="50">
         <v>1222776</v>
       </c>
-      <c r="D19" s="89" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="89">
+      <c r="D19" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="81">
         <v>1222776</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="58">
+      <c r="A20" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="50">
         <v>1222765</v>
       </c>
-      <c r="D20" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" s="89">
+      <c r="D20" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="81">
         <v>1222765</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="58">
+      <c r="A21" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="50">
         <v>1222775</v>
       </c>
-      <c r="D21" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" s="89">
+      <c r="D21" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="81">
         <v>1222775</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="58">
+      <c r="A22" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="50">
         <v>10811404</v>
       </c>
-      <c r="D22" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="89">
+      <c r="D22" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="81">
         <v>10811404</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="58">
+      <c r="A23" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="50">
         <v>9759958</v>
       </c>
-      <c r="D23" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="89">
+      <c r="D23" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="81">
         <v>9759958</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="58">
+      <c r="A24" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="50">
         <v>10811399</v>
       </c>
-      <c r="D24" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="89">
+      <c r="D24" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="81">
         <v>10811399</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="58">
+      <c r="A25" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="50">
         <v>10811398</v>
       </c>
-      <c r="D25" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="89">
+      <c r="D25" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="81">
         <v>10811398</v>
       </c>
     </row>
@@ -6530,470 +6665,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="93" t="s">
+      <c r="A1" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="B1" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="105" t="s">
-        <v>234</v>
-      </c>
-      <c r="F1" s="105" t="s">
+      <c r="C1" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="F1" s="97" t="s">
         <v>236</v>
       </c>
+      <c r="G1" s="97" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="92" t="s">
+      <c r="A2" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="104" t="s">
+      <c r="C2" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="G2" s="104" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="104" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="104" t="s">
+      <c r="E4" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="G4" s="104" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="B7" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="104" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="104" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="104" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="104" t="s">
+      <c r="E9" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="96" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="104" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="E9" s="104" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="104" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="G9" s="104" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="104" t="s">
+      <c r="E11" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="104" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="104" t="s">
+      <c r="E13" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="G11" s="104" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="84" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="E12" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="104" t="s">
+      <c r="C14" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="G12" s="104" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="104" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="G13" s="104" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="104" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="104" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="C19" s="92" t="s">
+      <c r="A19" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="84" t="s">
         <v>272</v>
       </c>
+      <c r="C19" s="84" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="92" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="92" t="s">
+      <c r="A20" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="84" t="s">
         <v>274</v>
       </c>
+      <c r="C20" s="84" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" s="92" t="s">
+      <c r="A21" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="84" t="s">
         <v>276</v>
       </c>
+      <c r="C21" s="84" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="92" t="s">
+      <c r="A22" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="84" t="s">
         <v>278</v>
       </c>
+      <c r="C22" s="84" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="92" t="s">
+      <c r="A23" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="84" t="s">
         <v>280</v>
       </c>
+      <c r="C23" s="84" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="C24" s="92" t="s">
+      <c r="A24" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="84" t="s">
         <v>282</v>
       </c>
+      <c r="C24" s="84" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" s="92" t="s">
+      <c r="A25" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="84" t="s">
         <v>284</v>
       </c>
+      <c r="C25" s="84" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="B26" s="92" t="s">
+      <c r="A26" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="B26" s="84" t="s">
         <v>287</v>
       </c>
+      <c r="C26" s="84" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="B27" s="92" t="s">
+      <c r="A27" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="B27" s="84" t="s">
         <v>290</v>
       </c>
+      <c r="C27" s="84" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="92" t="s">
-        <v>291</v>
-      </c>
-      <c r="B28" s="92" t="s">
+      <c r="A28" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="B28" s="84" t="s">
         <v>293</v>
       </c>
+      <c r="C28" s="84" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29" s="92" t="s">
+      <c r="A29" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="B29" s="84" t="s">
         <v>296</v>
       </c>
+      <c r="C29" s="84" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="B30" s="92" t="s">
+      <c r="A30" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="B30" s="84" t="s">
         <v>299</v>
       </c>
+      <c r="C30" s="84" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="B31" s="92" t="s">
+      <c r="A31" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="B31" s="84" t="s">
         <v>302</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
